--- a/xlsx/圣费尔南多_intext.xlsx
+++ b/xlsx/圣费尔南多_intext.xlsx
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
